--- a/io/tc2.xlsx
+++ b/io/tc2.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="tc2" r:id="rId3" sheetId="1"/>
+    <sheet name="TC2" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Format Version</t>
   </si>
@@ -20,19 +20,19 @@
     <t>Architecture</t>
   </si>
   <si>
-    <t>powerwindow_tl_v01</t>
+    <t>powerwindow_tl</t>
   </si>
   <si>
     <t>Scope</t>
   </si>
   <si>
-    <t>power_window_controller/Subsystem/power_window_controller</t>
+    <t>PowerWindowController/Subsystem/PowerWindowController</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>tc2</t>
+    <t>TC2</t>
   </si>
   <si>
     <t>Mode</t>
@@ -44,21 +44,24 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>Locals</t>
-  </si>
-  <si>
     <t>Outputs</t>
   </si>
   <si>
     <t>Step</t>
   </si>
   <si>
+    <t>driver_neutral</t>
+  </si>
+  <si>
     <t>driver_up</t>
   </si>
   <si>
     <t>driver_down</t>
   </si>
   <si>
+    <t>passenger_neutral</t>
+  </si>
+  <si>
     <t>passenger_up</t>
   </si>
   <si>
@@ -83,34 +86,22 @@
     <t>emergency_down_time</t>
   </si>
   <si>
-    <t>detection_endstop_bottom</t>
-  </si>
-  <si>
-    <t>detection_endstop_top</t>
-  </si>
-  <si>
-    <t>detection_obstacle</t>
-  </si>
-  <si>
     <t>obstacle_detection</t>
   </si>
   <si>
-    <t>move_up</t>
-  </si>
-  <si>
-    <t>move_down</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>move_up_cmd</t>
+  </si>
+  <si>
+    <t>move_down_cmd</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>100.0</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -242,7 +233,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.625" collapsed="true"/>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -349,74 +340,72 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" ht="90.0" customHeight="true">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -442,16 +431,34 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
